--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aryan\Documents\UiPath\IdCardGenerator\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0F9B85-CA1D-4EC0-87CC-AE98FB42037F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E16EEE-F28B-4438-8BAB-37A984F382B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="74">
   <si>
     <t>Name</t>
   </si>
@@ -178,6 +178,75 @@
   </si>
   <si>
     <t>sheet name containing the data</t>
+  </si>
+  <si>
+    <t>D:\UiPath\UseCase- IdCardData\IdForm.docx</t>
+  </si>
+  <si>
+    <t>IDFrom_Template</t>
+  </si>
+  <si>
+    <t>Path for the form template in the local.</t>
+  </si>
+  <si>
+    <t>EmergencyNo</t>
+  </si>
+  <si>
+    <t>ImageFolderPath</t>
+  </si>
+  <si>
+    <t>D:\UiPath\UseCase- IdCardData\Images</t>
+  </si>
+  <si>
+    <t>FinalFolderPath</t>
+  </si>
+  <si>
+    <t>D:\UiPath\UseCase- IdCardData\FINALIDCARDS</t>
+  </si>
+  <si>
+    <t>StatusCell</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Cell in which the status will be written.</t>
+  </si>
+  <si>
+    <t>Folder where the final files generated will be stored.</t>
+  </si>
+  <si>
+    <t>Folder where the images for the correspond employees are present.</t>
+  </si>
+  <si>
+    <t>Contact number to be mentioned on the ID cards.</t>
+  </si>
+  <si>
+    <t>AdminMailID</t>
+  </si>
+  <si>
+    <t>s.aryan1503@gmail.com</t>
+  </si>
+  <si>
+    <t>Mail Id for the admin for any queries or issues.</t>
+  </si>
+  <si>
+    <t>7838896681aryan@gmail.com</t>
+  </si>
+  <si>
+    <t>senderEmail</t>
+  </si>
+  <si>
+    <t>Mail Id of the sender.</t>
+  </si>
+  <si>
+    <t>passcode_Gmail</t>
+  </si>
+  <si>
+    <t>tbvknxxxqvrrryyt</t>
+  </si>
+  <si>
+    <t>App password for the Gmail sign in</t>
   </si>
 </sst>
 </file>
@@ -229,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -239,6 +308,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,14 +625,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="81.44140625" customWidth="1"/>
     <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
@@ -655,14 +725,94 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9">
+        <v>9999999999</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" t="s">
+        <v>73</v>
+      </c>
+    </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
@@ -1657,7 +1807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
